--- a/analysis results.xlsx
+++ b/analysis results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\@@ Python\Projectjes\drought indicators for book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1038001-4213-4A1E-97B5-5319374A9252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7755D7F0-A98D-427B-A2E6-143BCE9E043C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,24 +20,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
-  <si>
-    <t>Mean_P_1998-2000</t>
-  </si>
-  <si>
-    <t>Mean_P_2018-2020</t>
-  </si>
-  <si>
-    <t>mean_length_drydays_1998_2000</t>
-  </si>
-  <si>
-    <t>N_drydays_1998_2000</t>
-  </si>
-  <si>
-    <t>mean_length_drydays_2018_2020</t>
-  </si>
-  <si>
-    <t>N_drydays_2018_2020</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>Mean_P_1998-2002</t>
+  </si>
+  <si>
+    <t>Mean_P_2017-2021</t>
+  </si>
+  <si>
+    <t>mean_length_drydays_1998_2002</t>
+  </si>
+  <si>
+    <t>N_drydays_1998_2002</t>
+  </si>
+  <si>
+    <t>mean_length_drydays_2017_2021</t>
+  </si>
+  <si>
+    <t>N_drydays_2017_2021</t>
   </si>
   <si>
     <t>Beijing</t>
@@ -80,12 +80,6 @@
   </si>
   <si>
     <t>Keulen</t>
-  </si>
-  <si>
-    <t>mm/d</t>
-  </si>
-  <si>
-    <t>Number</t>
   </si>
 </sst>
 </file>
@@ -141,13 +135,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -169,23 +161,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4182</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1666875</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7B14199-84AC-EC47-5CF9-6009DE909489}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9379EFCB-D0AF-8876-DA38-C5F77B04BBEE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -208,8 +200,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="38100" y="3133725"/>
-          <a:ext cx="5010150" cy="2495550"/>
+          <a:off x="10906125" y="194682"/>
+          <a:ext cx="4572000" cy="2815217"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -230,183 +222,88 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1914525</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1238250</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>3741</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1066478</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>80382</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4191A955-516E-E552-DF56-B0AC099AC3AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C67004D-E38D-5DF2-ECCB-1696CB38E165}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="5295900" y="3124200"/>
-          <a:ext cx="4867275" cy="2975541"/>
+          <a:off x="114301" y="3038475"/>
+          <a:ext cx="4333552" cy="3709407"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1228726</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>31410</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>62827</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{375A4CDC-36C3-9EE3-A921-E393F39644C7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEA55902-CEF8-573D-AC4E-7EB55FAAB9D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="10487025" y="47625"/>
-          <a:ext cx="3381375" cy="3031785"/>
+          <a:off x="4610101" y="3095626"/>
+          <a:ext cx="5749251" cy="3514724"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>167880</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>336513</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBEE5F3E-BF8E-25E2-2DB6-DCBEC8BC1906}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10439400" y="3406380"/>
-          <a:ext cx="4460838" cy="2746769"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -699,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,366 +613,345 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>21</v>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>378.24002075195313</v>
+      </c>
+      <c r="C2">
+        <v>593.9400634765625</v>
+      </c>
+      <c r="D2">
+        <v>10.974683544303801</v>
+      </c>
+      <c r="E2">
+        <v>41</v>
+      </c>
+      <c r="F2">
+        <v>14</v>
+      </c>
+      <c r="G2">
+        <v>40.333333333333343</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3">
-        <v>415.56668090820313</v>
-      </c>
-      <c r="C3" s="3">
-        <v>510.70004272460938</v>
-      </c>
-      <c r="D3" s="3">
-        <v>11.65</v>
-      </c>
-      <c r="E3" s="3">
-        <v>26.666666666666671</v>
-      </c>
-      <c r="F3" s="3">
-        <v>12.880597014925369</v>
-      </c>
-      <c r="G3" s="3">
-        <v>22.333333333333329</v>
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>1376.519897460938</v>
+      </c>
+      <c r="C3">
+        <v>1628.519897460938</v>
+      </c>
+      <c r="D3">
+        <v>5.4666666666666668</v>
+      </c>
+      <c r="E3">
+        <v>66.666666666666671</v>
+      </c>
+      <c r="F3">
+        <v>5.109375</v>
+      </c>
+      <c r="G3">
+        <v>70.333333333333329</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1400.13330078125</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1639.900024414062</v>
-      </c>
-      <c r="D4" s="3">
-        <v>5.5123966942148757</v>
-      </c>
-      <c r="E4" s="3">
-        <v>40.333333333333343</v>
-      </c>
-      <c r="F4" s="3">
-        <v>5.1338582677165352</v>
-      </c>
-      <c r="G4" s="3">
-        <v>42.333333333333343</v>
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>1601.119873046875</v>
+      </c>
+      <c r="C4">
+        <v>1680.680053710938</v>
+      </c>
+      <c r="D4">
+        <v>7.7244897959183669</v>
+      </c>
+      <c r="E4">
+        <v>54</v>
+      </c>
+      <c r="F4">
+        <v>7.1509433962264151</v>
+      </c>
+      <c r="G4">
+        <v>57.666666666666657</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1524.933227539062</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1677.833374023438</v>
-      </c>
-      <c r="D5" s="3">
-        <v>7.8383838383838382</v>
-      </c>
-      <c r="E5" s="3">
-        <v>33</v>
-      </c>
-      <c r="F5" s="3">
-        <v>7.1037735849056602</v>
-      </c>
-      <c r="G5" s="3">
-        <v>35.333333333333343</v>
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>984.22003173828125</v>
+      </c>
+      <c r="C5">
+        <v>1368.119995117188</v>
+      </c>
+      <c r="D5">
+        <v>8.7526881720430101</v>
+      </c>
+      <c r="E5">
+        <v>51.666666666666657</v>
+      </c>
+      <c r="F5">
+        <v>7.2641509433962268</v>
+      </c>
+      <c r="G5">
+        <v>56.333333333333343</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1031.400024414062</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1325</v>
-      </c>
-      <c r="D6" s="3">
-        <v>9</v>
-      </c>
-      <c r="E6" s="3">
-        <v>31.333333333333329</v>
-      </c>
-      <c r="F6" s="3">
-        <v>6.783018867924528</v>
-      </c>
-      <c r="G6" s="3">
-        <v>35.333333333333343</v>
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>1169.06005859375</v>
+      </c>
+      <c r="C6">
+        <v>1404.840087890625</v>
+      </c>
+      <c r="D6">
+        <v>6.3693693693693696</v>
+      </c>
+      <c r="E6">
+        <v>61</v>
+      </c>
+      <c r="F6">
+        <v>5.5439999999999996</v>
+      </c>
+      <c r="G6">
+        <v>71.666666666666671</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1216.400024414062</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1477.2666015625</v>
-      </c>
-      <c r="D7" s="3">
-        <v>6.4196428571428568</v>
-      </c>
-      <c r="E7" s="3">
-        <v>37.333333333333343</v>
-      </c>
-      <c r="F7" s="3">
-        <v>5.52</v>
-      </c>
-      <c r="G7" s="3">
-        <v>41.666666666666657</v>
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>1052.340087890625</v>
+      </c>
+      <c r="C7">
+        <v>813.4000244140625</v>
+      </c>
+      <c r="D7">
+        <v>4.125</v>
+      </c>
+      <c r="E7">
+        <v>64.666666666666671</v>
+      </c>
+      <c r="F7">
+        <v>5.0756302521008401</v>
+      </c>
+      <c r="G7">
+        <v>67.666666666666671</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1060.733276367188</v>
-      </c>
-      <c r="C8" s="3">
-        <v>846.63330078125</v>
-      </c>
-      <c r="D8" s="3">
-        <v>4.125</v>
-      </c>
-      <c r="E8" s="3">
-        <v>40</v>
-      </c>
-      <c r="F8" s="3">
-        <v>5.0756302521008401</v>
-      </c>
-      <c r="G8" s="3">
-        <v>39.666666666666657</v>
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>581.97998046875</v>
+      </c>
+      <c r="C8">
+        <v>577.4000244140625</v>
+      </c>
+      <c r="D8">
+        <v>7.3703703703703702</v>
+      </c>
+      <c r="E8">
+        <v>64</v>
+      </c>
+      <c r="F8">
+        <v>8.257142857142858</v>
+      </c>
+      <c r="G8">
+        <v>60.333333333333343</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="3">
-        <v>541.39996337890625</v>
-      </c>
-      <c r="C9" s="3">
-        <v>503.00003051757813</v>
-      </c>
-      <c r="D9" s="3">
-        <v>7.477064220183486</v>
-      </c>
-      <c r="E9" s="3">
-        <v>36.333333333333343</v>
-      </c>
-      <c r="F9" s="3">
-        <v>8.1634615384615383</v>
-      </c>
-      <c r="G9" s="3">
-        <v>34.666666666666657</v>
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>939.22003173828125</v>
+      </c>
+      <c r="C9">
+        <v>487.13998413085938</v>
+      </c>
+      <c r="D9">
+        <v>4.8434782608695652</v>
+      </c>
+      <c r="E9">
+        <v>58</v>
+      </c>
+      <c r="F9">
+        <v>6.0325203252032518</v>
+      </c>
+      <c r="G9">
+        <v>62.666666666666657</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="3">
-        <v>885.10003662109375</v>
-      </c>
-      <c r="C10" s="3">
-        <v>446.33334350585938</v>
-      </c>
-      <c r="D10" s="3">
-        <v>4.8434782608695652</v>
-      </c>
-      <c r="E10" s="3">
-        <v>38.333333333333343</v>
-      </c>
-      <c r="F10" s="3">
-        <v>6.0325203252032518</v>
-      </c>
-      <c r="G10" s="3">
-        <v>41</v>
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>1484.500122070312</v>
+      </c>
+      <c r="C10">
+        <v>1861.400024414062</v>
+      </c>
+      <c r="D10">
+        <v>4.6583333333333332</v>
+      </c>
+      <c r="E10">
+        <v>68</v>
+      </c>
+      <c r="F10">
+        <v>5.0166666666666666</v>
+      </c>
+      <c r="G10">
+        <v>61.666666666666657</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1465.200073242188</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1578.10009765625</v>
-      </c>
-      <c r="D11" s="3">
-        <v>4.6583333333333332</v>
-      </c>
-      <c r="E11" s="3">
-        <v>40</v>
-      </c>
-      <c r="F11" s="3">
-        <v>5.0336134453781511</v>
-      </c>
-      <c r="G11" s="3">
-        <v>39.666666666666657</v>
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>1996.5400390625</v>
+      </c>
+      <c r="C11">
+        <v>1753.219970703125</v>
+      </c>
+      <c r="D11">
+        <v>5.1363636363636367</v>
+      </c>
+      <c r="E11">
+        <v>65.333333333333329</v>
+      </c>
+      <c r="F11">
+        <v>5.3220338983050848</v>
+      </c>
+      <c r="G11">
+        <v>67.333333333333329</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="3">
-        <v>2171.2333984375</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1768.7333984375</v>
-      </c>
-      <c r="D12" s="3">
-        <v>5.1081081081081079</v>
-      </c>
-      <c r="E12" s="3">
-        <v>37</v>
-      </c>
-      <c r="F12" s="3">
-        <v>5.3050847457627119</v>
-      </c>
-      <c r="G12" s="3">
-        <v>39.333333333333343</v>
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>1470.340087890625</v>
+      </c>
+      <c r="C12">
+        <v>2067.260009765625</v>
+      </c>
+      <c r="D12">
+        <v>7.4680851063829783</v>
+      </c>
+      <c r="E12">
+        <v>49.333333333333343</v>
+      </c>
+      <c r="F12">
+        <v>6.7706422018348622</v>
+      </c>
+      <c r="G12">
+        <v>58.333333333333343</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1619.299926757812</v>
-      </c>
-      <c r="C13" s="3">
-        <v>2105.13330078125</v>
-      </c>
-      <c r="D13" s="3">
-        <v>7.5473684210526324</v>
-      </c>
-      <c r="E13" s="3">
-        <v>31.666666666666671</v>
-      </c>
-      <c r="F13" s="3">
-        <v>6.7314814814814818</v>
-      </c>
-      <c r="G13" s="3">
-        <v>36</v>
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>314.760009765625</v>
+      </c>
+      <c r="C13">
+        <v>453.20001220703119</v>
+      </c>
+      <c r="D13">
+        <v>8.6274509803921564</v>
+      </c>
+      <c r="E13">
+        <v>53.333333333333343</v>
+      </c>
+      <c r="F13">
+        <v>9.4226804123711343</v>
+      </c>
+      <c r="G13">
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="3">
-        <v>282.4666748046875</v>
-      </c>
-      <c r="C14" s="3">
-        <v>338.16665649414063</v>
-      </c>
-      <c r="D14" s="3">
-        <v>8.7184466019417481</v>
-      </c>
-      <c r="E14" s="3">
-        <v>34.333333333333343</v>
-      </c>
-      <c r="F14" s="3">
-        <v>9.2371134020618548</v>
-      </c>
-      <c r="G14" s="3">
-        <v>32.333333333333343</v>
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>643.22003173828125</v>
+      </c>
+      <c r="C14">
+        <v>800.300048828125</v>
+      </c>
+      <c r="D14">
+        <v>7.3564356435643568</v>
+      </c>
+      <c r="E14">
+        <v>58</v>
+      </c>
+      <c r="F14">
+        <v>6.7913043478260873</v>
+      </c>
+      <c r="G14">
+        <v>62.333333333333343</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="3">
-        <v>641.933349609375</v>
-      </c>
-      <c r="C15" s="3">
-        <v>733.60003662109375</v>
-      </c>
-      <c r="D15" s="3">
-        <v>7.6372549019607847</v>
-      </c>
-      <c r="E15" s="3">
-        <v>34</v>
-      </c>
-      <c r="F15" s="3">
-        <v>6.7565217391304344</v>
-      </c>
-      <c r="G15" s="3">
-        <v>38.333333333333343</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="3">
-        <v>395.4000244140625</v>
-      </c>
-      <c r="C16" s="3">
-        <v>410.10000610351563</v>
-      </c>
-      <c r="D16" s="3">
-        <v>9.56989247311828</v>
-      </c>
-      <c r="E16" s="3">
-        <v>31</v>
-      </c>
-      <c r="F16" s="3">
-        <v>8.4038461538461533</v>
-      </c>
-      <c r="G16" s="3">
-        <v>34.666666666666657</v>
+      <c r="B15">
+        <v>421.20001220703119</v>
+      </c>
+      <c r="C15">
+        <v>483.87997436523438</v>
+      </c>
+      <c r="D15">
+        <v>9.5652173913043477</v>
+      </c>
+      <c r="E15">
+        <v>51.666666666666657</v>
+      </c>
+      <c r="F15">
+        <v>8.4326923076923084</v>
+      </c>
+      <c r="G15">
+        <v>57.666666666666657</v>
       </c>
     </row>
   </sheetData>

--- a/analysis results.xlsx
+++ b/analysis results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,26 @@
           <t>sum rainfall in critical quarter 2017-2021</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Mean_T_anom_2002-2007</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mean_T_anom_2007-2012</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Mean_T_anom_2012-2017</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Mean_T_anom_2017-2022</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +525,18 @@
       <c r="I2" t="n">
         <v>147.6066691080729</v>
       </c>
+      <c r="J2" t="n">
+        <v>1.027534365653992</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.5953571796417236</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.9207971096038818</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.407952666282654</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -536,6 +568,18 @@
       <c r="I3" t="n">
         <v>227.7799886067708</v>
       </c>
+      <c r="J3" t="n">
+        <v>0.1529367417097092</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.2098842114210129</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.1759693473577499</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.476120263338089</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -567,6 +611,18 @@
       <c r="I4" t="n">
         <v>202.8800048828125</v>
       </c>
+      <c r="J4" t="n">
+        <v>0.3213476538658142</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.2530762851238251</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.4622536599636078</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.8613607883453369</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -598,6 +654,18 @@
       <c r="I5" t="n">
         <v>197.5533447265625</v>
       </c>
+      <c r="J5" t="n">
+        <v>0.6876922845840454</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.4942399561405182</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.7095251679420471</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.114517331123352</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -629,6 +697,18 @@
       <c r="I6" t="n">
         <v>165.5533345540365</v>
       </c>
+      <c r="J6" t="n">
+        <v>0.9773463010787964</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.6907257437705994</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.033843874931335</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.462576985359192</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -660,6 +740,18 @@
       <c r="I7" t="n">
         <v>76.57333374023438</v>
       </c>
+      <c r="J7" t="n">
+        <v>0.8976433277130127</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.5702357888221741</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.7934548258781433</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.276681780815125</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -691,6 +783,18 @@
       <c r="I8" t="n">
         <v>54.8066660563151</v>
       </c>
+      <c r="J8" t="n">
+        <v>0.9124077558517456</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.5719060897827148</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.8839142322540283</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.381705760955811</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -722,6 +826,18 @@
       <c r="I9" t="n">
         <v>57.56667073567709</v>
       </c>
+      <c r="J9" t="n">
+        <v>0.8915310502052307</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.4934071600437164</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.9293677806854248</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.325136542320251</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -753,6 +869,18 @@
       <c r="I10" t="n">
         <v>107.6466674804688</v>
       </c>
+      <c r="J10" t="n">
+        <v>0.1984381079673767</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.1777880936861038</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.4904373586177826</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.5138602256774902</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -784,6 +912,18 @@
       <c r="I11" t="n">
         <v>180.0666707356771</v>
       </c>
+      <c r="J11" t="n">
+        <v>0.2728450894355774</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.05762287601828575</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.405795693397522</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.7220320701599121</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -815,6 +955,18 @@
       <c r="I12" t="n">
         <v>173.2200113932292</v>
       </c>
+      <c r="J12" t="n">
+        <v>0.3603193163871765</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.4083164036273956</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.5908300876617432</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.8542513251304626</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -846,6 +998,18 @@
       <c r="I13" t="n">
         <v>55.84666951497396</v>
       </c>
+      <c r="J13" t="n">
+        <v>0.7681716680526733</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.5500335097312927</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.9291219711303711</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.46335780620575</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -877,6 +1041,18 @@
       <c r="I14" t="n">
         <v>99.8800048828125</v>
       </c>
+      <c r="J14" t="n">
+        <v>0.6368283033370972</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.9244036078453064</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.339719653129578</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.588810563087463</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -907,6 +1083,18 @@
       </c>
       <c r="I15" t="n">
         <v>62.02666727701823</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.7681716680526733</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.5500335097312927</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.9291219711303711</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.46335780620575</v>
       </c>
     </row>
   </sheetData>
